--- a/igem2017/sdin/tools/preload/additional/medal.xlsx
+++ b/igem2017/sdin/tools/preload/additional/medal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\新建文件夹\medal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\igem\数据\高级检索数据\medal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4418" windowHeight="1643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4418" windowHeight="1643"/>
   </bookViews>
   <sheets>
     <sheet name="medal的解释" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
-    <t>picture/medal/bronze medal</t>
-  </si>
-  <si>
     <t>2017.igem.org/Judging/Medals</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/medal/silver medal</t>
-  </si>
-  <si>
     <t>Silver is medium level of three medals. Teams are only competing with themselves to achieve the medal criteria. Besides the criteria for the bronze medal, teams who want to win the silver medal must meet the following requirements:
 1.- Validated Part / Validated Contribution
 2.- Collaboration
@@ -59,9 +53,6 @@
   <si>
     <t>silver medal</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture/medal/gold medal</t>
   </si>
   <si>
     <t>Gold is highest level of three medals. Teams are only competing with themselves to achieve the medal criteria. Besides the criteria for the silver medal, teams who want to win the gold medal must meet at least two criteria as follow:
@@ -297,6 +288,18 @@
   </si>
   <si>
     <t>单独搜的时候推荐得medal奖的project（按project_score排先后）和这些project的part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold medal.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver medal.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze medal.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1355,7 +1357,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2541,10 +2542,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87686</xdr:rowOff>
+      <xdr:rowOff>163886</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2543175" cy="3491249"/>
     <xdr:pic>
@@ -2562,7 +2563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="616324"/>
+          <a:off x="2405063" y="692524"/>
           <a:ext cx="2543175" cy="3491249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2947,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2960,58 +2961,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3025,50 +3026,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3077,7 +3078,7 @@
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>2016</v>
@@ -3086,13 +3087,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -3101,7 +3102,7 @@
         <v>2014</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2015</v>
@@ -3110,25 +3111,25 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -3137,16 +3138,16 @@
         <v>2015</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2016</v>
@@ -3158,13 +3159,13 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -3173,34 +3174,34 @@
         <v>2013</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2012</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3224,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1">
         <v>2009</v>
@@ -3252,7 +3253,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>47</v>
@@ -3281,7 +3282,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -3310,7 +3311,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -3339,7 +3340,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -3369,31 +3370,31 @@
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5">
         <v>8</v>
@@ -3414,10 +3415,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5">
         <v>27</v>
@@ -3438,10 +3439,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
         <v>36</v>
@@ -3462,10 +3463,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
         <v>246</v>
@@ -3486,10 +3487,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5">
         <v>82</v>
@@ -3510,10 +3511,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
         <v>35</v>
@@ -3534,10 +3535,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>208</v>
@@ -3558,10 +3559,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>11</v>
@@ -3582,10 +3583,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5">
         <v>212</v>
@@ -3606,10 +3607,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5">
         <v>74</v>
@@ -3630,10 +3631,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>83</v>
@@ -3654,10 +3655,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5">
         <v>126</v>
@@ -3678,10 +3679,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>21</v>
@@ -3702,10 +3703,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>202</v>
@@ -3726,10 +3727,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5">
         <v>62</v>
@@ -3750,10 +3751,10 @@
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
         <v>32</v>
@@ -3792,12 +3793,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
